--- a/CountryCapitalList/countries_capitals.xlsx
+++ b/CountryCapitalList/countries_capitals.xlsx
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nukuʻalofa</t>
+          <t>Nuku'alofa</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">

--- a/CountryCapitalList/countries_capitals.xlsx
+++ b/CountryCapitalList/countries_capitals.xlsx
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ngerulmud</t>
+          <t>Koror</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
